--- a/Banco Central/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
+++ b/Banco Central/13/1/2/1/Operaciones no financieras 2005 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5681,7 +5684,7 @@
         <v>718921</v>
       </c>
       <c r="J66">
-        <v>12289157</v>
+        <v>12289176</v>
       </c>
       <c r="K66">
         <v>2907966</v>
@@ -5690,7 +5693,7 @@
         <v>985079</v>
       </c>
       <c r="M66">
-        <v>915742</v>
+        <v>915761</v>
       </c>
       <c r="N66">
         <v>5335302</v>
@@ -5702,7 +5705,7 @@
         <v>25284</v>
       </c>
       <c r="Q66">
-        <v>-201884</v>
+        <v>-201903</v>
       </c>
       <c r="R66">
         <v>1286147</v>
@@ -5720,13 +5723,90 @@
         <v>12089077</v>
       </c>
       <c r="W66">
-        <v>13577108</v>
+        <v>13577127</v>
       </c>
       <c r="X66">
-        <v>-1488031</v>
+        <v>-1488050</v>
       </c>
       <c r="Y66">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67">
+        <v>13520553</v>
+      </c>
+      <c r="C67">
+        <v>10991018</v>
+      </c>
+      <c r="D67">
+        <v>877997</v>
+      </c>
+      <c r="E67">
+        <v>684890</v>
+      </c>
+      <c r="F67">
+        <v>49278</v>
+      </c>
+      <c r="G67">
+        <v>110078</v>
+      </c>
+      <c r="H67">
+        <v>257571</v>
+      </c>
+      <c r="I67">
+        <v>549721</v>
+      </c>
+      <c r="J67">
+        <v>15919314</v>
+      </c>
+      <c r="K67">
+        <v>2847244</v>
+      </c>
+      <c r="L67">
+        <v>1118483</v>
+      </c>
+      <c r="M67">
+        <v>93722</v>
+      </c>
+      <c r="N67">
+        <v>9683333</v>
+      </c>
+      <c r="O67">
+        <v>2144230</v>
+      </c>
+      <c r="P67">
+        <v>32302</v>
+      </c>
+      <c r="Q67">
+        <v>-2398761</v>
+      </c>
+      <c r="R67">
+        <v>1815296</v>
+      </c>
+      <c r="S67">
+        <v>1168</v>
+      </c>
+      <c r="T67">
+        <v>947415</v>
+      </c>
+      <c r="U67">
+        <v>869049</v>
+      </c>
+      <c r="V67">
+        <v>13521721</v>
+      </c>
+      <c r="W67">
+        <v>17735777</v>
+      </c>
+      <c r="X67">
+        <v>-4214056</v>
+      </c>
+      <c r="Y67">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
